--- a/biology/Médecine/Partie_orbitale_de_l'os_frontal/Partie_orbitale_de_l'os_frontal.xlsx
+++ b/biology/Médecine/Partie_orbitale_de_l'os_frontal/Partie_orbitale_de_l'os_frontal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Partie_orbitale_de_l%27os_frontal</t>
+          <t>Partie_orbitale_de_l'os_frontal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La partie orbitale de l'os frontal (ou partie orbitaire de l'os frontal) est la contribution de l'os frontal à la structure de l'orbite.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Partie_orbitale_de_l%27os_frontal</t>
+          <t>Partie_orbitale_de_l'os_frontal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,87 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La partie orbitale de l'os frontal est composée de deux fines plaques triangulaires : les lames orbitaires de l'os frontal qui forment la paroi supérieure des orbites. Elles sont séparées par un espace médian : l'incisure ethmoïdale de l'os frontal.
-Surface inférieure des lames orbitaires
-La surface inférieure est lisse et concave et forme la face orbitaire de la partie orbitaire de l'os frontal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Partie_orbitale_de_l'os_frontal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Partie_orbitale_de_l%27os_frontal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Surface inférieure des lames orbitaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La surface inférieure est lisse et concave et forme la face orbitaire de la partie orbitaire de l'os frontal.
 Au niveau de la base de l'apophyse zygomatique se trouve une dépression peu profonde : la fosse lacrymale qui loge la glande lacrymale.
 Près de la partie nasale se trouve une dépression, la fosse trochléaire, ou parfois une saillie formant une épine trochléaire. Ce point permet la fixation de la trochlée du muscle oblique supérieur qui est une poulie de réflexion du muscle oblique supérieur de l'œil.
-Surface supérieure des lames orbitaires
-La surface supérieure est convexe et marquée par des dépressions correspondant aux circonvolutions des lobes frontaux du cerveau et par de faibles rainures marquées par les artères ethmoïdales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Partie_orbitale_de_l'os_frontal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Partie_orbitale_de_l%27os_frontal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Surface supérieure des lames orbitaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La surface supérieure est convexe et marquée par des dépressions correspondant aux circonvolutions des lobes frontaux du cerveau et par de faibles rainures marquées par les artères ethmoïdales.
 Le bord interne correspond à l'incisure ethmoïdale dans laquelle se loge la lame criblée de l'ethmoïde. Le bord de l'incisure présente plusieurs demi-cellules, qui lorsqu'elles sont unies aux demi-cellules correspondantes de la face supérieure de l'ethmoïde, complètent les alvéoles ethmoïdales.
 Ce bord présente deux rainures qui sont converties en canaux par l'articulation avec l'os ethmoïde.
 La rainure antérieure forme le canal ethmoïdo-frontal antérieur qui s'ouvre en haut sur le foramen ethmoïdal antérieur. Il permet le passage du nerf naso-ciliaire et des vaisseaux ethmoïdaux antérieurs.
